--- a/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/Template - Settings - Depots Info.xlsx
+++ b/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/Template - Settings - Depots Info.xlsx
@@ -1,49 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\外包服务\线上外包\201710#04 麦肯锡物流规划平台\171123-1130 产品原型 0.8\导入导出模板\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="“Depots Info” Settings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+  <si>
+    <t>ID（空）</t>
+  </si>
+  <si>
+    <t>depot ID *</t>
+  </si>
+  <si>
+    <t>longitude *</t>
+  </si>
+  <si>
+    <t>latitude *</t>
+  </si>
+  <si>
+    <t>depot name *</t>
+  </si>
+  <si>
+    <t>depot address *</t>
+  </si>
+  <si>
+    <t>depot area *</t>
+  </si>
+  <si>
+    <t>depot type *</t>
+  </si>
   <si>
     <t>to distrib.center</t>
   </si>
   <si>
-    <t>depot name *</t>
-  </si>
-  <si>
-    <t>depot address *</t>
-  </si>
-  <si>
-    <t>depot area *</t>
-  </si>
-  <si>
-    <t>depot type *</t>
-  </si>
-  <si>
     <t>night distrib. *</t>
   </si>
   <si>
+    <t>one period of time : 10 (min)</t>
+  </si>
+  <si>
     <t>vehicle quantity limit *</t>
   </si>
   <si>
@@ -51,50 +56,381 @@
   </si>
   <si>
     <t>piece capacity (p) *</t>
-  </si>
-  <si>
-    <t>one period of time : 10 (min)</t>
-  </si>
-  <si>
-    <t>depot ID *</t>
-  </si>
-  <si>
-    <t>longitude *</t>
-  </si>
-  <si>
-    <t>latitude *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -104,55 +440,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -160,58 +496,345 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -260,7 +883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -293,26 +916,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -345,23 +951,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,201 +1092,208 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.425" customWidth="1"/>
+    <col min="5" max="5" width="13.2833333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.1416666666667" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.1416666666667" customWidth="1"/>
+    <col min="9" max="9" width="15.425" customWidth="1"/>
+    <col min="10" max="10" width="13.8583333333333" customWidth="1"/>
+    <col min="11" max="11" width="21.7083333333333" customWidth="1"/>
+    <col min="12" max="12" width="20.2833333333333" customWidth="1"/>
+    <col min="13" max="13" width="18.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:13">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
+      <c r="M2" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"depot,distrib. Center"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
       <formula1>"support,not support"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>$A:$A</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>